--- a/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_TimeAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_TimeAfterMinutes_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="90">
   <si>
     <t>ModuleName</t>
   </si>
@@ -231,9 +231,6 @@
     <t>ET164</t>
   </si>
   <si>
-    <t>ET196</t>
-  </si>
-  <si>
     <t>TimeHour</t>
   </si>
   <si>
@@ -246,21 +243,12 @@
     <t>00</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>05:00:00 PM</t>
   </si>
   <si>
     <t xml:space="preserve"> tskNT_ExecuteTask_TimeAfterMinutes</t>
   </si>
   <si>
-    <t>24-05-2024</t>
-  </si>
-  <si>
-    <t>27-05-2024 05:00:00 PM</t>
-  </si>
-  <si>
     <t>Every time the record is modified</t>
   </si>
   <si>
@@ -271,12 +259,46 @@
   </si>
   <si>
     <t xml:space="preserve">ET_ETRM_Notify </t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>31-05-2024</t>
+  </si>
+  <si>
+    <t>31-05-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET490</t>
+  </si>
+  <si>
+    <t>31-05-2024 06:00:00 PM</t>
+  </si>
+  <si>
+    <t>06:00:00 PM</t>
+  </si>
+  <si>
+    <t>31-05-2024 07:00:00 PM</t>
+  </si>
+  <si>
+    <t>07:00:00 PM</t>
+  </si>
+  <si>
+    <t>31-05-2024 08:00:00 PM</t>
+  </si>
+  <si>
+    <t>08:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET493</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -628,49 +650,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
+    <col min="37" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -774,13 +796,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -788,7 +810,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -814,8 +836,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>77</v>
+      <c r="K2" t="s" s="1">
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -823,11 +845,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>75</v>
+      <c r="N2" t="s" s="1">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>73</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -857,13 +879,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -872,22 +894,22 @@
         <v>46</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
+      </c>
+      <c r="AG2" t="s" s="1">
+        <v>89</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s" s="1">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -903,30 +925,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AG7" sqref="AG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1030,13 +1052,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1044,7 +1066,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1070,8 +1092,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>77</v>
+      <c r="K2" t="s" s="0">
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1079,11 +1101,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" t="s">
-        <v>75</v>
+      <c r="N2" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>84</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1113,13 +1135,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1130,19 +1152,19 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s" s="0">
         <v>67</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1158,20 +1180,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1275,13 +1297,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
@@ -1289,7 +1311,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1315,8 +1337,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>77</v>
+      <c r="K2" t="s" s="0">
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1324,11 +1346,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" t="s">
-        <v>75</v>
+      <c r="N2" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1358,13 +1380,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1375,22 +1397,22 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="7">
         <v>0</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1406,48 +1428,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AH5" sqref="AH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1551,13 +1573,13 @@
         <v>49</v>
       </c>
       <c r="AH1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1565,7 +1587,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1591,8 +1613,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>77</v>
+      <c r="K2" t="s" s="0">
+        <v>80</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1600,11 +1622,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" t="s">
-        <v>75</v>
+      <c r="N2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>88</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1634,13 +1656,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1651,19 +1673,19 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="AG2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="AH2" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_TimeAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_TimeAfterMinutes_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="89">
   <si>
     <t>ModuleName</t>
   </si>
@@ -246,9 +246,6 @@
     <t>05:00:00 PM</t>
   </si>
   <si>
-    <t xml:space="preserve"> tskNT_ExecuteTask_TimeAfterMinutes</t>
-  </si>
-  <si>
     <t>Every time the record is modified</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>31-05-2024 05:00:00 PM</t>
   </si>
   <si>
-    <t>ET490</t>
-  </si>
-  <si>
     <t>31-05-2024 06:00:00 PM</t>
   </si>
   <si>
@@ -292,13 +286,15 @@
   </si>
   <si>
     <t>ET493</t>
+  </si>
+  <si>
+    <t>ET_TimeAfterMinutes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -650,49 +646,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
-    <col min="37" max="16384" style="1" width="9.1796875"/>
+    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -810,7 +806,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -836,8 +832,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>80</v>
+      <c r="K2" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -845,10 +841,10 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s" s="1">
+      <c r="N2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>73</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -879,13 +875,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -894,10 +890,10 @@
         <v>46</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG2" t="s" s="1">
-        <v>89</v>
+        <v>77</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
@@ -908,8 +904,8 @@
       <c r="AJ2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" t="s" s="1">
-        <v>79</v>
+      <c r="AK2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -926,29 +922,29 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" customWidth="true" width="21.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1066,7 +1062,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1092,8 +1088,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>80</v>
+      <c r="K2" t="s">
+        <v>79</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1101,11 +1097,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>84</v>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1135,13 +1131,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1152,9 +1148,9 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s">
         <v>67</v>
       </c>
       <c r="AH2" s="7">
@@ -1181,19 +1177,19 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1311,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1337,8 +1333,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>80</v>
+      <c r="K2" t="s">
+        <v>79</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1346,11 +1342,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>85</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>86</v>
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>84</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1380,13 +1376,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1397,9 +1393,9 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s">
         <v>68</v>
       </c>
       <c r="AH2" s="7">
@@ -1428,48 +1424,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AH5" sqref="AH5"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="30.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1587,7 +1583,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>25</v>
@@ -1613,8 +1609,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>80</v>
+      <c r="K2" t="s">
+        <v>79</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1622,11 +1618,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>88</v>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" t="s">
+        <v>86</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1656,13 +1652,13 @@
         <v>48</v>
       </c>
       <c r="Y2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z2" s="6" t="s">
         <v>41</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1673,9 +1669,9 @@
         <v>1199223344</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="AG2" t="s">
         <v>68</v>
       </c>
       <c r="AH2" s="7">

--- a/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_TimeAfterMinutes_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ETRM/ET_NT_ETRM_TimeAfterMinutes_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="99">
   <si>
     <t>ModuleName</t>
   </si>
@@ -289,12 +289,43 @@
   </si>
   <si>
     <t>ET_TimeAfterMinutes</t>
+  </si>
+  <si>
+    <t>27-07-2024</t>
+  </si>
+  <si>
+    <t>30-07-2024 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>05:00:00PM</t>
+  </si>
+  <si>
+    <t>ET2839</t>
+  </si>
+  <si>
+    <t>30-07-2024 06:00:00 PM</t>
+  </si>
+  <si>
+    <t>06:00:00PM</t>
+  </si>
+  <si>
+    <t>30-07-2024 07:00:00 PM</t>
+  </si>
+  <si>
+    <t>07:00:00PM</t>
+  </si>
+  <si>
+    <t>30-07-2024 08:00:00 PM</t>
+  </si>
+  <si>
+    <t>08:00:00PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,43 +683,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
+    <col min="37" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -832,8 +863,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>79</v>
+      <c r="K2" t="s" s="1">
+        <v>89</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -841,11 +872,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>73</v>
+      <c r="N2" t="s" s="1">
+        <v>90</v>
+      </c>
+      <c r="O2" t="s" s="1">
+        <v>91</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -892,8 +923,8 @@
       <c r="AF2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>87</v>
+      <c r="AG2" t="s" s="1">
+        <v>92</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
@@ -904,7 +935,7 @@
       <c r="AJ2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" t="s" s="1">
         <v>78</v>
       </c>
     </row>
@@ -927,24 +958,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1088,8 +1119,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>79</v>
+      <c r="K2" t="s" s="0">
+        <v>89</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1097,11 +1128,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>82</v>
+      <c r="N2" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>94</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1150,7 +1181,7 @@
       <c r="AF2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>67</v>
       </c>
       <c r="AH2" s="7">
@@ -1182,14 +1213,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1333,8 +1364,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>79</v>
+      <c r="K2" t="s" s="0">
+        <v>89</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1342,11 +1373,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" t="s">
-        <v>84</v>
+      <c r="N2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>96</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1395,7 +1426,7 @@
       <c r="AF2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="AH2" s="7">
@@ -1430,42 +1461,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1609,8 +1640,8 @@
       <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" t="s">
-        <v>79</v>
+      <c r="K2" t="s" s="0">
+        <v>89</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1618,11 +1649,11 @@
       <c r="M2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" t="s">
-        <v>86</v>
+      <c r="N2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>98</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>33</v>
@@ -1671,7 +1702,7 @@
       <c r="AF2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>68</v>
       </c>
       <c r="AH2" s="7">
